--- a/experiment/nonconvex/MitsosBarton2006Ex312/compare/C-Estacionario/MitsosBarton2006Ex312_C-Estacionario.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/compare/C-Estacionario/MitsosBarton2006Ex312_C-Estacionario.xlsx
@@ -473,13 +473,13 @@
         <v>1.2543510060631098</v>
       </c>
       <c r="E2">
-        <v>0.0113355</v>
+        <v>0.0141806</v>
       </c>
       <c r="F2">
-        <v>0.0196737</v>
+        <v>0.072385</v>
       </c>
       <c r="G2">
-        <v>0.012736933759590794</v>
+        <v>0.022789461467889908</v>
       </c>
       <c r="H2">
         <v>3126</v>
